--- a/Documentacion_SCRUM/Product Backlog (1).xlsx
+++ b/Documentacion_SCRUM/Product Backlog (1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\U ISRAEL\6to Semestre U Israel Sistemas\Ingenieria de software I\AlexSandoval\Proyecto PISIP\Formatos Entregables\Proyecto_7mo\Archivos_Scrum\Repositorio Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\OneDrive\Documentos\GitHub\Proyecto_7mo_Ing.Software\Documentacion_SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,9 +148,6 @@
     <t>Vacío</t>
   </si>
   <si>
-    <t>Como Administrador registrado, necesito que el Login de acceso a la Interfaz del Sistema se devida en tres: (Administrador Primario, Administradores y Empleados ) ; Con el objetivo de un organizar, jerarquiza la información tanto como de salvaguardar la integridad el almacenamiento del mismo</t>
-  </si>
-  <si>
     <t>Como Usuario registrado; Se desea establecer a la Interfaz un registro de Información personal (Perfil de Usuario); Con el fin de almacenar información personal y de contacto del usuario.</t>
   </si>
   <si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>User 2</t>
+  </si>
+  <si>
+    <t>Como Administrador registrado, necesito que el Login de acceso a la Interfaz del Sistema se divida en tres: (Administrador Primario, Administradores y Empleados ) ; Con el objetivo de organizar y jerarquiza la información tanto como de salvaguardar la integridad el almacenamiento del mismo</t>
   </si>
 </sst>
 </file>
@@ -289,8 +289,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,8 +671,8 @@
   </sheetPr>
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,10 +731,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>37</v>
@@ -727,10 +755,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>37</v>
@@ -751,10 +779,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>37</v>
@@ -775,10 +803,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>37</v>
